--- a/TestExcel/Excel2.xlsx
+++ b/TestExcel/Excel2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\ExcelDataSolution\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B10B3-55C6-48F4-9FF0-A98D6AA6F4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244184AE-D1FC-4A19-A50C-060CF40A7C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="14370" windowWidth="14400" windowHeight="17400" activeTab="1" xr2:uid="{5083D813-57EB-48FA-819F-90752B653A97}"/>
+    <workbookView xWindow="-28920" yWindow="14250" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{5083D813-57EB-48FA-819F-90752B653A97}"/>
   </bookViews>
   <sheets>
     <sheet name="SameNameSheet" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,39 +51,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Subject1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score1.Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score1.Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score2.Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score2.Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score3.Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score3.Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <r>
+      <t>山田太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>郎</t>
+    </r>
+  </si>
+  <si>
+    <t>Li Wei</t>
+  </si>
+  <si>
+    <r>
+      <t>علي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الأحمد</t>
+    </r>
+  </si>
+  <si>
+    <t>Emily Johnson</t>
+  </si>
+  <si>
+    <t>이영희</t>
+  </si>
+  <si>
+    <t>佐藤花子</t>
+  </si>
+  <si>
+    <t>Wang Fang</t>
+  </si>
+  <si>
+    <r>
+      <t>محمد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>خالد</t>
+    </r>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Subjects[0].Subject</t>
+  </si>
+  <si>
+    <t>Subjects[0].Score</t>
+  </si>
+  <si>
+    <t>Subjects[1].Subject</t>
+  </si>
+  <si>
+    <t>Subjects[1].Score</t>
+  </si>
+  <si>
+    <t>Subjects[2].Subject</t>
+  </si>
+  <si>
+    <t>Subjects[2].Score</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +236,21 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,8 +276,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,25 +617,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2BBD75-D2B9-4A77-B5FB-DE68ABD67C39}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -493,51 +729,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12795BD-B19A-484A-834D-58269DFF430F}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
